--- a/09-03-20.xlsx
+++ b/09-03-20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Transaction Id .</t>
   </si>
@@ -47,6 +47,24 @@
   </si>
   <si>
     <t>8848811818</t>
+  </si>
+  <si>
+    <t>Mak</t>
+  </si>
+  <si>
+    <t>Game of Thrones- Song of Ice and Fire</t>
+  </si>
+  <si>
+    <t>LIV Dublin, 27- 31, Church Street</t>
+  </si>
+  <si>
+    <t>9619564257</t>
+  </si>
+  <si>
+    <t>mak</t>
+  </si>
+  <si>
+    <t>I Funny</t>
   </si>
 </sst>
 </file>
@@ -387,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,6 +457,52 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
